--- a/qPCR_stat/Rhizosphere_qPCR_Stat.xlsx
+++ b/qPCR_stat/Rhizosphere_qPCR_Stat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fina\INRAE_Project\microservices\qPCR_stat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627A1AAE-67C3-48A8-83A6-123376012167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E172FD-57F0-4EFB-BCC9-774916F08467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="915" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AOA_ngDNA" sheetId="1" r:id="rId1"/>
@@ -459,7 +459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -1903,7 +1903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F2E416-81AC-46AD-BC2D-20793C2332AC}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
@@ -4282,7 +4282,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D63100D-902F-4538-953B-DB0125B6E2F4}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
